--- a/EntregaAnalisisRequeridos.xlsx
+++ b/EntregaAnalisisRequeridos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofiaalvarezlopez/Documents/Universidad/Décimo Semestre/Inteligencia de Negocios/Proyectos/Proyecto2_BI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4743879B-90A6-E344-9246-23A999E04E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7930D52E-BA8B-B14C-8922-A716C9ED3B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Temas Analíticos" sheetId="1" r:id="rId1"/>
@@ -335,7 +335,7 @@
     <t xml:space="preserve">Visualización de análisis indicadores de salud  con base en el análisis 1 y 2 </t>
   </si>
   <si>
-    <t xml:space="preserve">Visualización de análisis indicadores de salud  con base a en el nálisis 1 y 2 </t>
+    <t xml:space="preserve">Visualización de análisis indicadores de servicios públicos con base en el análisis 1 y 2 </t>
   </si>
 </sst>
 </file>
@@ -1250,6 +1250,30 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1258,30 +1282,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2200,8 +2200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2860,9 +2860,9 @@
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="38"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100">
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108">
         <f>F6*0.6+G6*0.4</f>
         <v>0</v>
       </c>
@@ -2876,9 +2876,9 @@
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="40"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
@@ -2889,9 +2889,9 @@
       </c>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
@@ -2902,9 +2902,9 @@
       </c>
       <c r="D9" s="41"/>
       <c r="E9" s="42"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
     </row>
     <row r="10" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
@@ -2921,58 +2921,58 @@
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
-      <c r="B11" s="108"/>
+      <c r="B11" s="100"/>
       <c r="C11" s="36" t="str">
         <f>'Temas Analíticos'!C14</f>
         <v xml:space="preserve">Análisis de cobertura neta  * año *  mes * departamento * municipio </v>
       </c>
       <c r="D11" s="37"/>
       <c r="E11" s="38"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100">
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108">
         <f>F11*0.6+G11*0.4</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
-      <c r="B12" s="109"/>
+      <c r="B12" s="101"/>
       <c r="C12" s="36" t="e">
         <f>'Temas Analíticos'!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="D12" s="39"/>
       <c r="E12" s="40"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
-      <c r="B13" s="109"/>
+      <c r="B13" s="101"/>
       <c r="C13" s="36" t="str">
         <f>'Temas Analíticos'!C15</f>
         <v xml:space="preserve">Visualización del análisis indicadores educativos con base en el análisis 1 </v>
       </c>
       <c r="D13" s="39"/>
       <c r="E13" s="40"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="110"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="36" t="e">
         <f>'Temas Analíticos'!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="D14" s="41"/>
       <c r="E14" s="42"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
     </row>
     <row r="15" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
@@ -2989,58 +2989,58 @@
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
-      <c r="B16" s="108"/>
+      <c r="B16" s="100"/>
       <c r="C16" s="36" t="str">
         <f>'Temas Analíticos'!C17</f>
         <v xml:space="preserve">Análisis del indicador de desempleo * año  * municipio </v>
       </c>
       <c r="D16" s="37"/>
       <c r="E16" s="38"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100">
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108">
         <f>F16*0.6+G16*0.4</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
-      <c r="B17" s="109"/>
+      <c r="B17" s="101"/>
       <c r="C17" s="36" t="e">
         <f>'Temas Analíticos'!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="D17" s="39"/>
       <c r="E17" s="40"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
-      <c r="B18" s="109"/>
+      <c r="B18" s="101"/>
       <c r="C18" s="36" t="str">
         <f>'Temas Analíticos'!C20</f>
         <v xml:space="preserve">Visualización de análisis indicadores de desempleo para departamentos </v>
       </c>
       <c r="D18" s="39"/>
       <c r="E18" s="40"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="101"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="109"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
-      <c r="B19" s="110"/>
+      <c r="B19" s="102"/>
       <c r="C19" s="36" t="e">
         <f>'Temas Analíticos'!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="D19" s="41"/>
       <c r="E19" s="42"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
     </row>
     <row r="20" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
@@ -3057,71 +3057,71 @@
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
-      <c r="B21" s="108"/>
+      <c r="B21" s="100"/>
       <c r="C21" s="36" t="str">
         <f>'Temas Analíticos'!C22</f>
         <v xml:space="preserve">Análisis del nivel de satisfacción del sistema de salud  * año *  departamento * municipio </v>
       </c>
       <c r="D21" s="37"/>
       <c r="E21" s="38"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100">
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="108">
         <f>F21*0.6+G21*0.4</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
-      <c r="B22" s="109"/>
+      <c r="B22" s="101"/>
       <c r="C22" s="36" t="str">
         <f>'Temas Analíticos'!C23</f>
         <v xml:space="preserve">Análisis de población  afiliada a regímenes * año * departamento * municipio   * tipo de régimen </v>
       </c>
       <c r="D22" s="39"/>
       <c r="E22" s="40"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="109"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
-      <c r="B23" s="109"/>
+      <c r="B23" s="101"/>
       <c r="C23" s="36" t="str">
         <f>'Temas Analíticos'!C24</f>
         <v xml:space="preserve">Visualización de análisis indicadores de salud  con base en el análisis 1 y 2 </v>
       </c>
       <c r="D23" s="39"/>
       <c r="E23" s="40"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="101"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="109"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
-      <c r="B24" s="109"/>
+      <c r="B24" s="101"/>
       <c r="C24" s="36" t="e">
         <f>'Temas Analíticos'!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="D24" s="39"/>
       <c r="E24" s="40"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="109"/>
+      <c r="H24" s="109"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
-      <c r="B25" s="110"/>
+      <c r="B25" s="102"/>
       <c r="C25" s="36" t="e">
         <f>'Temas Analíticos'!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="D25" s="41"/>
       <c r="E25" s="42"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
     </row>
     <row r="26" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
@@ -3138,89 +3138,77 @@
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
-      <c r="B27" s="108"/>
+      <c r="B27" s="100"/>
       <c r="C27" s="36" t="str">
         <f>'Temas Analíticos'!C26</f>
         <v xml:space="preserve">Análisis del indicador de cobertura  * año *  departamento * municipio * tipo de servicio </v>
       </c>
       <c r="D27" s="37"/>
       <c r="E27" s="38"/>
-      <c r="F27" s="100"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="100">
+      <c r="F27" s="108"/>
+      <c r="G27" s="108"/>
+      <c r="H27" s="108">
         <f>F27*0.6+G27*0.4</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
-      <c r="B28" s="109"/>
+      <c r="B28" s="101"/>
       <c r="C28" s="36" t="str">
         <f>'Temas Analíticos'!C27</f>
         <v xml:space="preserve">Análisis de penetración de banda ancha * año * departamento * municipio   </v>
       </c>
       <c r="D28" s="39"/>
       <c r="E28" s="40"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="101"/>
-      <c r="H28" s="101"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="109"/>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
-      <c r="B29" s="109"/>
+      <c r="B29" s="101"/>
       <c r="C29" s="36" t="e">
         <f>'Temas Analíticos'!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="D29" s="39"/>
       <c r="E29" s="40"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="109"/>
+      <c r="H29" s="109"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
-      <c r="B30" s="109"/>
+      <c r="B30" s="101"/>
       <c r="C30" s="36" t="e">
         <f>'Temas Analíticos'!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="D30" s="39"/>
       <c r="E30" s="40"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="101"/>
-      <c r="H30" s="101"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="109"/>
+      <c r="H30" s="109"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
-      <c r="B31" s="110"/>
+      <c r="B31" s="102"/>
       <c r="C31" s="36" t="str">
         <f>'Temas Analíticos'!C28</f>
-        <v xml:space="preserve">Visualización de análisis indicadores de salud  con base a en el nálisis 1 y 2 </v>
+        <v xml:space="preserve">Visualización de análisis indicadores de servicios públicos con base en el análisis 1 y 2 </v>
       </c>
       <c r="D31" s="41"/>
       <c r="E31" s="42"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="102"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="110"/>
     </row>
     <row r="60" spans="5:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E60" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="G11:G14"/>
     <mergeCell ref="F27:F31"/>
     <mergeCell ref="G27:G31"/>
     <mergeCell ref="H27:H31"/>
@@ -3230,6 +3218,18 @@
     <mergeCell ref="F21:F25"/>
     <mergeCell ref="G21:G25"/>
     <mergeCell ref="H21:H25"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B21:B25"/>
   </mergeCells>
   <conditionalFormatting sqref="F15:H1048576 F10:H11 F1:H6">
     <cfRule type="dataBar" priority="1">
